--- a/tests/data/Socher1_SOV.xlsx
+++ b/tests/data/Socher1_SOV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11102"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoainsurance-my.sharepoint.com/personal/crea_hoainsurance_net/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadavkolevesoh/Documents/work/SOVParser/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5869AB-777F-458F-8146-8C3F10C967D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF102C16-618F-A446-9598-09E6798A8FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18040" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission Details" sheetId="48" r:id="rId1"/>
@@ -1609,9 +1609,16 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2202,632 +2209,635 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="33" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="33" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="33" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="33" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="32" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="33" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="33" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="33" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="33" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -13365,10 +13375,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13637,35 +13643,35 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="96.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.26953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="65.26953125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="67.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="65.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="67.83203125" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="28"/>
-    <col min="8" max="8" width="4.54296875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="28" customWidth="1"/>
     <col min="9" max="9" width="5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="70.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="70.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="3" style="2" customWidth="1"/>
     <col min="16" max="16" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" style="2" customWidth="1"/>
     <col min="19" max="19" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="33" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="69" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="69" customFormat="1" ht="31" x14ac:dyDescent="0.2">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -13685,7 +13691,7 @@
       </c>
       <c r="H1" s="68"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A3" s="71" t="s">
         <v>3</v>
       </c>
@@ -13698,20 +13704,20 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="J3" s="187" t="s">
+      <c r="J3" s="159" t="s">
         <v>302</v>
       </c>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="189"/>
-      <c r="P3" s="187" t="s">
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="161"/>
+      <c r="P3" s="159" t="s">
         <v>301</v>
       </c>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="189"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="161"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -13726,16 +13732,16 @@
         <v>176</v>
       </c>
       <c r="F4" s="126"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="192"/>
-      <c r="P4" s="190"/>
-      <c r="Q4" s="191"/>
-      <c r="R4" s="191"/>
-      <c r="S4" s="192"/>
-    </row>
-    <row r="5" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+      <c r="J4" s="162"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="164"/>
+      <c r="P4" s="162"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="164"/>
+    </row>
+    <row r="5" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>7</v>
       </c>
@@ -13751,30 +13757,30 @@
       </c>
       <c r="F5" s="126"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="198" t="s">
+      <c r="K5" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="200" t="s">
+      <c r="L5" s="177" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="132"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="205" t="s">
+      <c r="Q5" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="186" t="s">
+      <c r="R5" s="158" t="s">
         <v>10</v>
       </c>
       <c r="S5" s="132"/>
     </row>
-    <row r="6" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="183" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="161"/>
+      <c r="C6" s="186"/>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
@@ -13783,20 +13789,20 @@
       </c>
       <c r="F6" s="126"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="199"/>
-      <c r="L6" s="201"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="178"/>
       <c r="M6" s="115"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="205"/>
-      <c r="R6" s="186"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="158"/>
       <c r="S6" s="115"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="159"/>
-      <c r="C7" s="161"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -13829,12 +13835,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="161"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="186"/>
       <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
@@ -13866,12 +13872,12 @@
       <c r="S8" s="119"/>
       <c r="T8" s="124"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="159"/>
-      <c r="C9" s="161"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
@@ -13901,12 +13907,12 @@
       <c r="S9" s="120"/>
       <c r="T9" s="124"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="159"/>
-      <c r="C10" s="161"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="186"/>
       <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
@@ -13938,12 +13944,12 @@
       <c r="S10" s="120"/>
       <c r="T10" s="124"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="160"/>
-      <c r="C11" s="161"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
@@ -13975,7 +13981,7 @@
       <c r="S11" s="120"/>
       <c r="T11" s="124"/>
     </row>
-    <row r="12" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="C12" s="124"/>
       <c r="D12" s="5" t="s">
         <v>29</v>
@@ -14008,7 +14014,7 @@
       <c r="S12" s="120"/>
       <c r="T12" s="124"/>
     </row>
-    <row r="13" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="153" t="s">
         <v>31</v>
       </c>
@@ -14043,7 +14049,7 @@
       <c r="S13" s="120"/>
       <c r="T13" s="124"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -14080,7 +14086,7 @@
       <c r="S14" s="120"/>
       <c r="T14" s="124"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -14115,7 +14121,7 @@
       <c r="S15" s="120"/>
       <c r="T15" s="124"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -14147,7 +14153,7 @@
       <c r="S16" s="120"/>
       <c r="T16" s="124"/>
     </row>
-    <row r="17" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
@@ -14155,10 +14161,10 @@
         <v>180</v>
       </c>
       <c r="C17" s="123"/>
-      <c r="D17" s="194" t="s">
+      <c r="D17" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="195"/>
+      <c r="E17" s="167"/>
       <c r="F17" s="126"/>
       <c r="J17" s="31" t="s">
         <v>44</v>
@@ -14184,7 +14190,7 @@
       <c r="S17" s="120"/>
       <c r="T17" s="124"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -14195,7 +14201,7 @@
       <c r="D18" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="208" t="s">
         <v>305</v>
       </c>
       <c r="F18" s="126"/>
@@ -14223,7 +14229,7 @@
       <c r="S18" s="120"/>
       <c r="T18" s="124"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -14258,7 +14264,7 @@
       <c r="S19" s="120"/>
       <c r="T19" s="124"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
@@ -14295,7 +14301,7 @@
       <c r="S20" s="120"/>
       <c r="T20" s="124"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>54</v>
       </c>
@@ -14332,7 +14338,7 @@
       <c r="S21" s="120"/>
       <c r="T21" s="124"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>56</v>
       </c>
@@ -14369,7 +14375,7 @@
       <c r="S22" s="120"/>
       <c r="T22" s="124"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
@@ -14406,7 +14412,7 @@
       <c r="S23" s="120"/>
       <c r="T23" s="124"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
@@ -14445,7 +14451,7 @@
       <c r="S24" s="120"/>
       <c r="T24" s="124"/>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>65</v>
       </c>
@@ -14486,7 +14492,7 @@
       <c r="S25" s="120"/>
       <c r="T25" s="131"/>
     </row>
-    <row r="26" spans="1:20" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>249</v>
       </c>
@@ -14525,7 +14531,7 @@
       <c r="S26" s="120"/>
       <c r="T26" s="131"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>68</v>
       </c>
@@ -14562,7 +14568,7 @@
       <c r="S27" s="120"/>
       <c r="T27" s="124"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>71</v>
       </c>
@@ -14599,7 +14605,7 @@
       <c r="S28" s="120"/>
       <c r="T28" s="124"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -14636,7 +14642,7 @@
       <c r="S29" s="120"/>
       <c r="T29" s="124"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>77</v>
       </c>
@@ -14673,7 +14679,7 @@
       <c r="S30" s="120"/>
       <c r="T30" s="124"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>79</v>
       </c>
@@ -14707,7 +14713,7 @@
       <c r="S31" s="122"/>
       <c r="T31" s="124"/>
     </row>
-    <row r="32" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="20" x14ac:dyDescent="0.2">
       <c r="B32" s="62"/>
       <c r="C32" s="123"/>
       <c r="D32" s="147" t="s">
@@ -14735,7 +14741,7 @@
       <c r="S32"/>
       <c r="T32"/>
     </row>
-    <row r="33" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="73" t="s">
         <v>83</v>
       </c>
@@ -14772,7 +14778,7 @@
       <c r="S33"/>
       <c r="T33"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>85</v>
       </c>
@@ -14811,7 +14817,7 @@
       <c r="S34"/>
       <c r="T34"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
@@ -14844,7 +14850,7 @@
       <c r="S35"/>
       <c r="T35"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>89</v>
       </c>
@@ -14877,12 +14883,12 @@
       <c r="S36"/>
       <c r="T36"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="C37" s="123"/>
-      <c r="D37" s="202" t="s">
+      <c r="D37" s="179" t="s">
         <v>323</v>
       </c>
-      <c r="E37" s="204"/>
+      <c r="E37" s="181"/>
       <c r="F37" s="150" t="s">
         <v>324</v>
       </c>
@@ -14906,14 +14912,14 @@
       <c r="S37"/>
       <c r="T37"/>
     </row>
-    <row r="38" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="73" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="74"/>
       <c r="C38" s="123"/>
-      <c r="D38" s="202"/>
-      <c r="E38" s="204"/>
+      <c r="D38" s="179"/>
+      <c r="E38" s="181"/>
       <c r="F38" s="150" t="s">
         <v>325</v>
       </c>
@@ -14937,7 +14943,7 @@
       <c r="S38"/>
       <c r="T38"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>94</v>
       </c>
@@ -14945,8 +14951,8 @@
         <v>358</v>
       </c>
       <c r="C39" s="123"/>
-      <c r="D39" s="202"/>
-      <c r="E39" s="204"/>
+      <c r="D39" s="179"/>
+      <c r="E39" s="181"/>
       <c r="F39" s="150" t="s">
         <v>326</v>
       </c>
@@ -14970,7 +14976,7 @@
       <c r="S39"/>
       <c r="T39"/>
     </row>
-    <row r="40" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>96</v>
       </c>
@@ -14978,8 +14984,8 @@
         <v>356</v>
       </c>
       <c r="C40" s="123"/>
-      <c r="D40" s="202"/>
-      <c r="E40" s="204"/>
+      <c r="D40" s="179"/>
+      <c r="E40" s="181"/>
       <c r="F40" s="150" t="s">
         <v>327</v>
       </c>
@@ -15003,7 +15009,7 @@
       <c r="S40"/>
       <c r="T40"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>98</v>
       </c>
@@ -15011,8 +15017,8 @@
         <v>353</v>
       </c>
       <c r="C41" s="123"/>
-      <c r="D41" s="202"/>
-      <c r="E41" s="204"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="181"/>
       <c r="F41" s="150" t="s">
         <v>328</v>
       </c>
@@ -15036,7 +15042,7 @@
       <c r="S41"/>
       <c r="T41"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>100</v>
       </c>
@@ -15044,8 +15050,8 @@
         <v>95949</v>
       </c>
       <c r="C42" s="123"/>
-      <c r="D42" s="202"/>
-      <c r="E42" s="204"/>
+      <c r="D42" s="179"/>
+      <c r="E42" s="181"/>
       <c r="F42" s="28" t="s">
         <v>347</v>
       </c>
@@ -15058,7 +15064,7 @@
       <c r="S42"/>
       <c r="T42"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>248</v>
       </c>
@@ -15089,7 +15095,7 @@
       <c r="S43"/>
       <c r="T43"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>103</v>
       </c>
@@ -15116,7 +15122,7 @@
       <c r="S44"/>
       <c r="T44"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>104</v>
       </c>
@@ -15149,7 +15155,7 @@
       <c r="R45"/>
       <c r="S45"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>265</v>
       </c>
@@ -15168,7 +15174,7 @@
       <c r="H46" s="124"/>
       <c r="I46" s="124"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>269</v>
       </c>
@@ -15176,10 +15182,10 @@
         <v>266</v>
       </c>
       <c r="C47" s="123"/>
-      <c r="D47" s="202" t="s">
+      <c r="D47" s="179" t="s">
         <v>335</v>
       </c>
-      <c r="E47" s="203"/>
+      <c r="E47" s="180"/>
       <c r="F47" s="150" t="s">
         <v>336</v>
       </c>
@@ -15187,7 +15193,7 @@
       <c r="H47" s="124"/>
       <c r="I47" s="124"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>270</v>
       </c>
@@ -15195,8 +15201,8 @@
         <v>33</v>
       </c>
       <c r="C48" s="123"/>
-      <c r="D48" s="202"/>
-      <c r="E48" s="203"/>
+      <c r="D48" s="179"/>
+      <c r="E48" s="180"/>
       <c r="F48" s="150" t="s">
         <v>337</v>
       </c>
@@ -15204,14 +15210,14 @@
       <c r="H48" s="124"/>
       <c r="I48" s="124"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>271</v>
       </c>
       <c r="B49" s="27"/>
       <c r="C49" s="123"/>
-      <c r="D49" s="202"/>
-      <c r="E49" s="203"/>
+      <c r="D49" s="179"/>
+      <c r="E49" s="180"/>
       <c r="F49" s="150" t="s">
         <v>338</v>
       </c>
@@ -15219,14 +15225,14 @@
       <c r="H49" s="124"/>
       <c r="I49" s="124"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B50" s="157"/>
       <c r="C50" s="124"/>
-      <c r="D50" s="202"/>
-      <c r="E50" s="203"/>
+      <c r="D50" s="179"/>
+      <c r="E50" s="180"/>
       <c r="F50" s="150" t="s">
         <v>339</v>
       </c>
@@ -15234,7 +15240,7 @@
       <c r="H50" s="124"/>
       <c r="I50" s="124"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>273</v>
       </c>
@@ -15251,7 +15257,7 @@
       <c r="H51" s="124"/>
       <c r="I51" s="124"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>274</v>
       </c>
@@ -15268,7 +15274,7 @@
       <c r="H52" s="124"/>
       <c r="I52" s="124"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>105</v>
       </c>
@@ -15287,7 +15293,7 @@
       <c r="H53" s="124"/>
       <c r="I53" s="124"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>275</v>
       </c>
@@ -15303,7 +15309,7 @@
       <c r="H54" s="124"/>
       <c r="I54" s="124"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>280</v>
       </c>
@@ -15313,7 +15319,7 @@
       <c r="F55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>106</v>
       </c>
@@ -15327,7 +15333,7 @@
       <c r="E56" s="74"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>281</v>
       </c>
@@ -15343,7 +15349,7 @@
       </c>
       <c r="F57" s="124"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -15359,7 +15365,7 @@
       </c>
       <c r="F58" s="124"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -15375,7 +15381,7 @@
       </c>
       <c r="F59" s="124"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>109</v>
       </c>
@@ -15386,7 +15392,7 @@
       </c>
       <c r="F60" s="124"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>110</v>
       </c>
@@ -15400,7 +15406,7 @@
       </c>
       <c r="F61" s="124"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -15414,14 +15420,14 @@
       </c>
       <c r="F62" s="124"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="125"/>
     </row>
-    <row r="64" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A64" s="63" t="s">
         <v>282</v>
       </c>
@@ -15433,7 +15439,7 @@
       <c r="E64" s="138"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>113</v>
       </c>
@@ -15447,7 +15453,7 @@
       </c>
       <c r="F65" s="114"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>283</v>
       </c>
@@ -15459,29 +15465,29 @@
       <c r="E66" s="113"/>
       <c r="F66" s="35"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="125"/>
-      <c r="D67" s="178" t="s">
+      <c r="D67" s="172" t="s">
         <v>257</v>
       </c>
-      <c r="E67" s="183"/>
-      <c r="F67" s="185"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E67" s="169"/>
+      <c r="F67" s="173"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="63" t="s">
         <v>284</v>
       </c>
       <c r="B68" s="27"/>
       <c r="C68" s="125"/>
-      <c r="D68" s="179"/>
-      <c r="E68" s="184"/>
-      <c r="F68" s="185"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D68" s="174"/>
+      <c r="E68" s="171"/>
+      <c r="F68" s="173"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>120</v>
       </c>
@@ -15489,13 +15495,13 @@
         <v>164</v>
       </c>
       <c r="C69" s="124"/>
-      <c r="D69" s="178" t="s">
+      <c r="D69" s="172" t="s">
         <v>258</v>
       </c>
-      <c r="E69" s="183"/>
-      <c r="F69" s="182"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E69" s="169"/>
+      <c r="F69" s="205"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>122</v>
       </c>
@@ -15503,11 +15509,11 @@
         <v>172</v>
       </c>
       <c r="C70" s="124"/>
-      <c r="D70" s="185"/>
-      <c r="E70" s="197"/>
-      <c r="F70" s="182"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D70" s="173"/>
+      <c r="E70" s="170"/>
+      <c r="F70" s="205"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>124</v>
       </c>
@@ -15515,11 +15521,11 @@
         <v>184</v>
       </c>
       <c r="C71" s="125"/>
-      <c r="D71" s="179"/>
-      <c r="E71" s="184"/>
-      <c r="F71" s="182"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D71" s="174"/>
+      <c r="E71" s="171"/>
+      <c r="F71" s="205"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>125</v>
       </c>
@@ -15527,25 +15533,25 @@
         <v>177</v>
       </c>
       <c r="C72" s="125"/>
-      <c r="D72" s="178" t="s">
+      <c r="D72" s="172" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="180" t="s">
+      <c r="E72" s="203" t="s">
         <v>177</v>
       </c>
-      <c r="F72" s="196"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F72" s="168"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B73" s="27"/>
       <c r="C73" s="125"/>
-      <c r="D73" s="179"/>
-      <c r="E73" s="181"/>
-      <c r="F73" s="196"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D73" s="174"/>
+      <c r="E73" s="204"/>
+      <c r="F73" s="168"/>
+    </row>
+    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>127</v>
       </c>
@@ -15557,9 +15563,9 @@
         <v>303</v>
       </c>
       <c r="E74" s="142"/>
-      <c r="F74" s="193"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F74" s="165"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>286</v>
       </c>
@@ -15567,9 +15573,9 @@
       <c r="C75" s="125"/>
       <c r="D75" s="60"/>
       <c r="E75" s="79"/>
-      <c r="F75" s="193"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F75" s="165"/>
+    </row>
+    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="70" t="s">
         <v>129</v>
       </c>
@@ -15578,28 +15584,28 @@
       </c>
       <c r="C76" s="125"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="31" t="s">
         <v>130</v>
       </c>
       <c r="B77" s="27"/>
       <c r="C77" s="125"/>
     </row>
-    <row r="78" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="31" t="s">
         <v>131</v>
       </c>
       <c r="B78" s="27"/>
       <c r="C78" s="124"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="31" t="s">
         <v>133</v>
       </c>
       <c r="B79" s="27"/>
       <c r="C79" s="124"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="60" t="s">
         <v>134</v>
       </c>
@@ -15608,87 +15614,87 @@
       </c>
       <c r="C80" s="124"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="172" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="197" t="s">
         <v>135</v>
       </c>
-      <c r="B83" s="173"/>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="174"/>
-      <c r="F83" s="171" t="s">
+      <c r="B83" s="198"/>
+      <c r="C83" s="198"/>
+      <c r="D83" s="198"/>
+      <c r="E83" s="199"/>
+      <c r="F83" s="196" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="175"/>
-      <c r="B84" s="176"/>
-      <c r="C84" s="176"/>
-      <c r="D84" s="176"/>
-      <c r="E84" s="177"/>
-      <c r="F84" s="171"/>
-    </row>
-    <row r="85" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="162"/>
-      <c r="B85" s="163"/>
-      <c r="C85" s="163"/>
-      <c r="D85" s="163"/>
-      <c r="E85" s="164"/>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="200"/>
+      <c r="B84" s="201"/>
+      <c r="C84" s="201"/>
+      <c r="D84" s="201"/>
+      <c r="E84" s="202"/>
+      <c r="F84" s="196"/>
+    </row>
+    <row r="85" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A85" s="187"/>
+      <c r="B85" s="188"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="188"/>
+      <c r="E85" s="189"/>
       <c r="F85" s="30" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="165"/>
-      <c r="B86" s="166"/>
-      <c r="C86" s="166"/>
-      <c r="D86" s="166"/>
-      <c r="E86" s="167"/>
+    <row r="86" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A86" s="190"/>
+      <c r="B86" s="191"/>
+      <c r="C86" s="191"/>
+      <c r="D86" s="191"/>
+      <c r="E86" s="192"/>
       <c r="F86" s="30" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="165"/>
-      <c r="B87" s="166"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="167"/>
+    <row r="87" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A87" s="190"/>
+      <c r="B87" s="191"/>
+      <c r="C87" s="191"/>
+      <c r="D87" s="191"/>
+      <c r="E87" s="192"/>
       <c r="F87" s="30" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="165"/>
-      <c r="B88" s="166"/>
-      <c r="C88" s="166"/>
-      <c r="D88" s="166"/>
-      <c r="E88" s="167"/>
+    <row r="88" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A88" s="190"/>
+      <c r="B88" s="191"/>
+      <c r="C88" s="191"/>
+      <c r="D88" s="191"/>
+      <c r="E88" s="192"/>
       <c r="F88" s="30" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="165"/>
-      <c r="B89" s="166"/>
-      <c r="C89" s="166"/>
-      <c r="D89" s="166"/>
-      <c r="E89" s="167"/>
+    <row r="89" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A89" s="190"/>
+      <c r="B89" s="191"/>
+      <c r="C89" s="191"/>
+      <c r="D89" s="191"/>
+      <c r="E89" s="192"/>
       <c r="F89" s="30" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="37" x14ac:dyDescent="0.35">
-      <c r="A90" s="168"/>
-      <c r="B90" s="169"/>
-      <c r="C90" s="169"/>
-      <c r="D90" s="169"/>
-      <c r="E90" s="170"/>
+    <row r="90" spans="1:6" ht="40" x14ac:dyDescent="0.2">
+      <c r="A90" s="193"/>
+      <c r="B90" s="194"/>
+      <c r="C90" s="194"/>
+      <c r="D90" s="194"/>
+      <c r="E90" s="195"/>
       <c r="F90" s="30" t="s">
         <v>142</v>
       </c>
@@ -15699,6 +15705,17 @@
   </protectedRanges>
   <dataConsolidate/>
   <mergeCells count="26">
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="A85:E90"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A83:E84"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="P3:S4"/>
     <mergeCell ref="J3:M4"/>
@@ -15714,17 +15731,6 @@
     <mergeCell ref="D37:D42"/>
     <mergeCell ref="E37:E42"/>
     <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="A85:E90"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="A83:E84"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
   </mergeCells>
   <conditionalFormatting sqref="B19">
     <cfRule type="expression" dxfId="20" priority="56">
@@ -16070,9 +16076,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>143</v>
       </c>
@@ -16090,19 +16096,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="61.7265625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="44" customWidth="1"/>
     <col min="6" max="7" width="7" style="38" customWidth="1"/>
-    <col min="8" max="8" width="61.7265625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" style="40" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="61.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" s="48" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:10" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="C2" s="206" t="s">
         <v>144</v>
       </c>
@@ -16116,7 +16122,7 @@
       <c r="I2" s="207"/>
       <c r="J2" s="207"/>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
       <c r="E3" s="43"/>
@@ -16126,7 +16132,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="43"/>
     </row>
-    <row r="4" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:10" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -16148,7 +16154,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C5" s="54" t="s">
         <v>19</v>
       </c>
@@ -16170,7 +16176,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C6" s="54" t="s">
         <v>22</v>
       </c>
@@ -16192,7 +16198,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C7" s="54" t="s">
         <v>25</v>
       </c>
@@ -16214,7 +16220,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C8" s="54" t="s">
         <v>28</v>
       </c>
@@ -16236,7 +16242,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C9" s="54" t="s">
         <v>30</v>
       </c>
@@ -16258,7 +16264,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C10" s="54" t="s">
         <v>33</v>
       </c>
@@ -16280,7 +16286,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C11" s="54" t="s">
         <v>36</v>
       </c>
@@ -16302,7 +16308,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C12" s="54" t="s">
         <v>38</v>
       </c>
@@ -16324,7 +16330,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C13" s="54" t="s">
         <v>41</v>
       </c>
@@ -16346,7 +16352,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C14" s="54" t="s">
         <v>44</v>
       </c>
@@ -16368,7 +16374,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C15" s="54" t="s">
         <v>47</v>
       </c>
@@ -16390,7 +16396,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C16" s="54" t="s">
         <v>50</v>
       </c>
@@ -16412,7 +16418,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C17" s="54" t="s">
         <v>53</v>
       </c>
@@ -16434,7 +16440,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C18" s="54" t="s">
         <v>55</v>
       </c>
@@ -16456,7 +16462,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C19" s="54" t="s">
         <v>58</v>
       </c>
@@ -16478,7 +16484,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C20" s="54" t="s">
         <v>61</v>
       </c>
@@ -16500,7 +16506,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C21" s="54" t="s">
         <v>64</v>
       </c>
@@ -16522,7 +16528,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C22" s="54" t="s">
         <v>67</v>
       </c>
@@ -16544,7 +16550,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="3:10" s="46" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:10" s="46" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="C23" s="54" t="s">
         <v>70</v>
       </c>
@@ -16566,7 +16572,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="3:10" s="46" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C24" s="54" t="s">
         <v>73</v>
       </c>
@@ -16588,7 +16594,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C25" s="54" t="s">
         <v>76</v>
       </c>
@@ -16610,7 +16616,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C26" s="54" t="s">
         <v>78</v>
       </c>
@@ -16632,7 +16638,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C27" s="54" t="s">
         <v>80</v>
       </c>
@@ -16654,7 +16660,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C28" s="54" t="s">
         <v>82</v>
       </c>
@@ -16676,7 +16682,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C29" s="54" t="s">
         <v>84</v>
       </c>
@@ -16698,7 +16704,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C30" s="54" t="s">
         <v>86</v>
       </c>
@@ -16720,7 +16726,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C31" s="54" t="s">
         <v>88</v>
       </c>
@@ -16742,7 +16748,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C32" s="54" t="s">
         <v>90</v>
       </c>
@@ -16764,7 +16770,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C33" s="54" t="s">
         <v>91</v>
       </c>
@@ -16786,7 +16792,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C34" s="54" t="s">
         <v>93</v>
       </c>
@@ -16808,7 +16814,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C35" s="54" t="s">
         <v>95</v>
       </c>
@@ -16830,7 +16836,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C36" s="56" t="s">
         <v>97</v>
       </c>
@@ -16852,7 +16858,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:10" s="46" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="C37" s="58" t="s">
         <v>99</v>
       </c>
@@ -16874,205 +16880,205 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:10" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="F38" s="52"/>
       <c r="G38" s="52"/>
     </row>
-    <row r="39" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:10" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
     </row>
-    <row r="40" spans="3:10" s="46" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:10" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="F40" s="52"/>
       <c r="G40" s="52"/>
     </row>
-    <row r="41" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C49" s="37"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C50" s="37"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C51" s="37"/>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C52" s="37"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C53" s="37"/>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C54" s="37"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
       <c r="I54" s="37"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C55" s="37"/>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
       <c r="I56" s="37"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C57" s="37"/>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
       <c r="I57" s="37"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C58" s="37"/>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C59" s="37"/>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
       <c r="I59" s="37"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C60" s="37"/>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
       <c r="I60" s="37"/>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C61" s="37"/>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C62" s="37"/>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
       <c r="I62" s="37"/>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C63" s="37"/>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
       <c r="I63" s="37"/>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
       <c r="I64" s="37"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C65" s="37"/>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
       <c r="I65" s="37"/>
     </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C66" s="37"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
       <c r="I66" s="37"/>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C67" s="37"/>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C68" s="37"/>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
       <c r="I68" s="37"/>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C69" s="37"/>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
       <c r="I69" s="37"/>
     </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C70" s="37"/>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
       <c r="I70" s="37"/>
     </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C71" s="42"/>
       <c r="D71" s="42"/>
       <c r="E71" s="45"/>
@@ -17082,7 +17088,7 @@
       <c r="I71" s="42"/>
       <c r="J71" s="45"/>
     </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C72" s="42"/>
       <c r="D72" s="42"/>
       <c r="E72" s="45"/>
@@ -17092,7 +17098,7 @@
       <c r="I72" s="42"/>
       <c r="J72" s="45"/>
     </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
       <c r="E73" s="45"/>
@@ -17102,7 +17108,7 @@
       <c r="I73" s="42"/>
       <c r="J73" s="45"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C74" s="42"/>
       <c r="D74" s="42"/>
       <c r="E74" s="45"/>
@@ -17112,7 +17118,7 @@
       <c r="I74" s="42"/>
       <c r="J74" s="45"/>
     </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C75" s="42"/>
       <c r="D75" s="42"/>
       <c r="E75" s="45"/>
@@ -17140,49 +17146,49 @@
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="19"/>
     <col min="3" max="3" width="53" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="19"/>
-    <col min="5" max="5" width="17.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="19"/>
-    <col min="7" max="7" width="11.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="19"/>
-    <col min="9" max="9" width="12.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="19"/>
     <col min="11" max="11" width="9" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="19"/>
-    <col min="13" max="13" width="4.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" style="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="19"/>
-    <col min="15" max="15" width="26.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="19"/>
-    <col min="17" max="17" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="19"/>
     <col min="19" max="19" width="16" style="19" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="19"/>
-    <col min="21" max="21" width="27.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.5" style="19" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="19"/>
     <col min="23" max="23" width="26" style="19" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="19"/>
     <col min="25" max="25" width="26" style="19" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="19"/>
-    <col min="27" max="27" width="40.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="40.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="19"/>
-    <col min="29" max="29" width="14.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="19"/>
     <col min="31" max="31" width="12" style="19" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" style="19"/>
     <col min="33" max="33" width="15" style="19" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9" style="19"/>
-    <col min="35" max="35" width="13.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.83203125" style="19" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="19"/>
     <col min="37" max="37" width="16" style="19" customWidth="1"/>
     <col min="38" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
@@ -17241,7 +17247,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>163</v>
       </c>
@@ -17297,7 +17303,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>176</v>
       </c>
@@ -17353,7 +17359,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>187</v>
       </c>
@@ -17403,7 +17409,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>195</v>
       </c>
@@ -17435,7 +17441,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C6" s="18" t="s">
         <v>148</v>
       </c>
@@ -17455,7 +17461,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C7" s="19" t="s">
         <v>164</v>
       </c>
@@ -17479,7 +17485,7 @@
       <c r="AE7" s="23"/>
       <c r="AG7" s="23"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C8" s="19" t="s">
         <v>255</v>
       </c>
@@ -17499,7 +17505,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C9" s="19" t="s">
         <v>188</v>
       </c>
@@ -17513,10 +17519,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <f ca="1">TODAY()</f>
-        <v>45832</v>
+        <v>45980</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>304</v>
@@ -17531,7 +17537,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C11" s="18" t="s">
         <v>148</v>
       </c>
@@ -17548,7 +17554,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C12" s="19" t="s">
         <v>259</v>
       </c>
@@ -17562,7 +17568,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C13" s="19" t="s">
         <v>160</v>
       </c>
@@ -17573,7 +17579,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C14" s="19" t="s">
         <v>260</v>
       </c>
@@ -17587,7 +17593,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C15" s="19" t="s">
         <v>261</v>
       </c>
@@ -17598,7 +17604,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C16" s="19" t="s">
         <v>262</v>
       </c>
@@ -17609,7 +17615,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="19" t="s">
         <v>200</v>
       </c>
@@ -17620,12 +17626,12 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E18" s="22">
         <v>25000</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="18" t="s">
         <v>268</v>
       </c>
@@ -17633,47 +17639,47 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="19" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" s="19" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C23" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C24" s="19" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" s="19" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C26" s="19" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" s="19" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C29" s="19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C30" s="19" t="b">
         <v>0</v>
       </c>
@@ -17694,21 +17700,21 @@
       <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="4" style="82" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="82" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="82" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
     <col min="6" max="11" width="2" style="82" customWidth="1"/>
-    <col min="12" max="12" width="91.54296875" style="82" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="91.5" style="82" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="82" customWidth="1"/>
     <col min="14" max="14" width="26" style="82" customWidth="1"/>
-    <col min="15" max="15" width="18.54296875" style="82" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="82" customWidth="1"/>
     <col min="16" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C3" s="80" t="s">
         <v>206</v>
       </c>
@@ -17722,7 +17728,7 @@
       <c r="N3" s="103"/>
       <c r="O3" s="103"/>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C4" s="83" t="s">
         <v>209</v>
       </c>
@@ -17740,7 +17746,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C5" s="85" t="s">
         <v>214</v>
       </c>
@@ -17755,7 +17761,7 @@
       <c r="N5" s="88"/>
       <c r="O5" s="88"/>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C6" s="83" t="s">
         <v>34</v>
       </c>
@@ -17773,7 +17779,7 @@
       <c r="N6" s="88"/>
       <c r="O6" s="88"/>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C7" s="90" t="s">
         <v>217</v>
       </c>
@@ -17788,7 +17794,7 @@
       <c r="N7" s="88"/>
       <c r="O7" s="88"/>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C8" s="85" t="s">
         <v>219</v>
       </c>
@@ -17806,13 +17812,13 @@
       </c>
       <c r="O8" s="88"/>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C9" s="83" t="s">
         <v>221</v>
       </c>
       <c r="D9" s="93">
         <f ca="1">TODAY()</f>
-        <v>45832</v>
+        <v>45980</v>
       </c>
       <c r="L9" s="87" t="s">
         <v>222</v>
@@ -17824,7 +17830,7 @@
       </c>
       <c r="O9" s="88"/>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C10" s="90" t="s">
         <v>223</v>
       </c>
@@ -17842,7 +17848,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C11" s="90" t="s">
         <v>65</v>
       </c>
@@ -17860,7 +17866,7 @@
       </c>
       <c r="O11" s="88"/>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C12" s="85" t="s">
         <v>226</v>
       </c>
@@ -17875,7 +17881,7 @@
       <c r="N12" s="88"/>
       <c r="O12" s="88"/>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C13" s="83" t="s">
         <v>94</v>
       </c>
@@ -17893,7 +17899,7 @@
       </c>
       <c r="O13" s="88"/>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C14" s="90" t="s">
         <v>96</v>
       </c>
@@ -17906,7 +17912,7 @@
       <c r="N14" s="88"/>
       <c r="O14" s="88"/>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C15" s="90" t="s">
         <v>229</v>
       </c>
@@ -17916,7 +17922,7 @@
       <c r="N15" s="88"/>
       <c r="O15" s="88"/>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C16" s="90" t="s">
         <v>98</v>
       </c>
@@ -17929,7 +17935,7 @@
       <c r="N16" s="88"/>
       <c r="O16" s="88"/>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="85" t="s">
         <v>100</v>
       </c>
@@ -17942,7 +17948,7 @@
       <c r="N17" s="88"/>
       <c r="O17" s="88"/>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="83" t="s">
         <v>230</v>
       </c>
@@ -17952,7 +17958,7 @@
       <c r="N18" s="88"/>
       <c r="O18" s="88"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="90" t="s">
         <v>6</v>
       </c>
@@ -17965,7 +17971,7 @@
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="90" t="s">
         <v>12</v>
       </c>
@@ -17978,7 +17984,7 @@
       <c r="N20" s="88"/>
       <c r="O20" s="88"/>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="90" t="s">
         <v>14</v>
       </c>
@@ -17991,7 +17997,7 @@
       <c r="N21" s="88"/>
       <c r="O21" s="88"/>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="90" t="s">
         <v>18</v>
       </c>
@@ -18000,7 +18006,7 @@
         <v>605000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="90" t="s">
         <v>21</v>
       </c>
@@ -18009,7 +18015,7 @@
         <v>10558040</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="90" t="s">
         <v>24</v>
       </c>
@@ -18018,7 +18024,7 @@
         <v>496402</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="90" t="s">
         <v>27</v>
       </c>
@@ -18027,7 +18033,7 @@
         <v>992804</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="90" t="s">
         <v>32</v>
       </c>
@@ -18036,7 +18042,7 @@
         <v>10558040</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="90" t="s">
         <v>35</v>
       </c>
@@ -18045,7 +18051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="90" t="s">
         <v>231</v>
       </c>
@@ -18054,7 +18060,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="90" t="s">
         <v>232</v>
       </c>
@@ -18062,7 +18068,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="90" t="s">
         <v>233</v>
       </c>
@@ -18071,7 +18077,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="90" t="s">
         <v>40</v>
       </c>
@@ -18080,7 +18086,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="90" t="s">
         <v>234</v>
       </c>
@@ -18089,7 +18095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" s="90" t="s">
         <v>52</v>
       </c>
@@ -18098,7 +18104,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" s="83" t="s">
         <v>60</v>
       </c>
@@ -18107,7 +18113,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" s="90" t="s">
         <v>63</v>
       </c>
@@ -18116,7 +18122,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" s="90" t="s">
         <v>66</v>
       </c>
@@ -18125,7 +18131,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C37" s="90" t="s">
         <v>69</v>
       </c>
@@ -18134,7 +18140,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" s="90" t="s">
         <v>235</v>
       </c>
@@ -18142,7 +18148,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C39" s="90" t="s">
         <v>237</v>
       </c>
@@ -18150,7 +18156,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C40" s="90" t="s">
         <v>72</v>
       </c>
@@ -18159,7 +18165,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C41" s="90" t="s">
         <v>75</v>
       </c>
@@ -18168,7 +18174,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C42" s="90" t="s">
         <v>238</v>
       </c>
@@ -18177,31 +18183,31 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C43" s="85" t="s">
         <v>239</v>
       </c>
       <c r="D43" s="110"/>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C44" s="90" t="s">
         <v>240</v>
       </c>
       <c r="D44" s="91"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" s="90" t="s">
         <v>241</v>
       </c>
       <c r="D45" s="91"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C46" s="85" t="s">
         <v>242</v>
       </c>
       <c r="D46" s="92"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C47" s="83" t="s">
         <v>103</v>
       </c>
@@ -18210,7 +18216,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C48" s="90" t="s">
         <v>104</v>
       </c>
@@ -18219,7 +18225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" s="90" t="s">
         <v>243</v>
       </c>
@@ -18228,7 +18234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" s="90" t="s">
         <v>244</v>
       </c>
@@ -18237,7 +18243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C51" s="90" t="s">
         <v>105</v>
       </c>
@@ -18246,13 +18252,13 @@
         <v>Frame</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" s="90" t="s">
         <v>245</v>
       </c>
       <c r="D52" s="99"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C53" s="90" t="s">
         <v>246</v>
       </c>
@@ -18261,7 +18267,7 @@
         <v>51% to 100%</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" s="90" t="s">
         <v>107</v>
       </c>
@@ -18270,7 +18276,7 @@
         <v>29394</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" s="90" t="s">
         <v>247</v>
       </c>
@@ -18279,7 +18285,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C56" s="85" t="s">
         <v>109</v>
       </c>
@@ -18288,15 +18294,15 @@
         <v>38154</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C57"/>
       <c r="D57"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C58"/>
       <c r="D58"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C59"/>
       <c r="D59"/>
     </row>
@@ -18312,12 +18318,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Date xmlns="8a41ad68-e0e0-4f41-8011-1d1bc4d7905e" xsi:nil="true"/>
+    <TaxCatchAll xmlns="03572007-efe5-4fb3-aed7-a41d0c924ebd" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8a41ad68-e0e0-4f41-8011-1d1bc4d7905e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18570,21 +18579,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Date xmlns="8a41ad68-e0e0-4f41-8011-1d1bc4d7905e" xsi:nil="true"/>
-    <TaxCatchAll xmlns="03572007-efe5-4fb3-aed7-a41d0c924ebd" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8a41ad68-e0e0-4f41-8011-1d1bc4d7905e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{103C99D8-8426-47B9-9389-1AA5A94A9C97}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A183057F-A31A-48F5-81E5-6DC8D3B8FB4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8a41ad68-e0e0-4f41-8011-1d1bc4d7905e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="03572007-efe5-4fb3-aed7-a41d0c924ebd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18609,18 +18624,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A183057F-A31A-48F5-81E5-6DC8D3B8FB4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{103C99D8-8426-47B9-9389-1AA5A94A9C97}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8a41ad68-e0e0-4f41-8011-1d1bc4d7905e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="03572007-efe5-4fb3-aed7-a41d0c924ebd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>